--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055206.299296291</v>
+        <v>4128581.588282378</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051491</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7456093.186447995</v>
+        <v>7357815.411495334</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>65.62682971309823</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>105.0839683962668</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>127.0044127072325</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.60620160013907</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>225.4603876057584</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>99.69856304335892</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>123.2202590352919</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>68.22769775781623</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>162.6502898051658</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>375.6514235850777</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.769908071584571</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>196.7218456862865</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.4224711922605</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>231.0334437199745</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>82.76481347543434</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>66.14085215535493</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,13 +2608,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>27.87523659913973</v>
+        <v>109.7997655438522</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898707</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857159</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169284</v>
+        <v>102.1555693376513</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329048</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373683</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346344</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415201</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287485</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689366</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941872</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069502</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.452763222454</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522965</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857159</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169284</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329366</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373683</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463121</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415201</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>136.9575509524583</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941872</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069502</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.452763222454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522965</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096899025</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857159</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169284</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329048</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373683</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463121</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415201</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941872</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069502</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.452763222454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378954</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463128</v>
+        <v>70.76637873512493</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689372</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522977</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463128</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415208</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.70991968893541</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2255.520561484594</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C2" t="n">
-        <v>1886.558044544182</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1528.292345937431</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1142.504093339187</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>731.5181885495797</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>313.5543804477666</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,10 +4424,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2151.250374195014</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>2151.250374195014</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>2151.250374195014</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
         <v>2022.963088632153</v>
@@ -4507,31 +4509,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T4" t="n">
-        <v>2440.423984540446</v>
+        <v>2321.694245121008</v>
       </c>
       <c r="U4" t="n">
-        <v>2151.250374195014</v>
+        <v>2321.694245121008</v>
       </c>
       <c r="V4" t="n">
-        <v>2151.250374195014</v>
+        <v>2067.009756915122</v>
       </c>
       <c r="W4" t="n">
-        <v>2151.250374195014</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X4" t="n">
-        <v>2151.250374195014</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y4" t="n">
-        <v>2151.250374195014</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1637.643464250441</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2414.382636290375</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2414.382636290375</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2414.382636290375</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2414.382636290375</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2024.243304314563</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005477</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1332.357248852006</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C8" t="n">
-        <v>963.3947319115948</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="D8" t="n">
-        <v>963.3947319115948</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="E8" t="n">
-        <v>963.3947319115948</v>
+        <v>593.8003409836476</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>586.8548402344442</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
         <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y8" t="n">
-        <v>1718.957088916128</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>726.3411982755407</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>726.3411982755407</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="T10" t="n">
-        <v>529.4200491697815</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>841.8437303942993</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,43 +5503,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>348.9932348328232</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>180.8179131526438</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5701,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5731,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5989,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141297</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678163</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>581.2185435662825</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1159.764352389685</v>
+        <v>1388.007416473203</v>
       </c>
       <c r="U28" t="n">
-        <v>870.6357136032432</v>
+        <v>1098.878777686761</v>
       </c>
       <c r="V28" t="n">
-        <v>870.6357136032432</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="W28" t="n">
-        <v>581.2185435662825</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="X28" t="n">
-        <v>581.2185435662825</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="Y28" t="n">
-        <v>581.2185435662825</v>
+        <v>844.1942894808744</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,19 +6478,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108356</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229698</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506753</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083233</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504541</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917983004</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.686330625496</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649697</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384658</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771665</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025264</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859419</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862499</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010341</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,46 +6685,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507007</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108356</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229698</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506753</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083233</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649697</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384658</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771665</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859419</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862499</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004523</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010341</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6932,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108356</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649697</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384658</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771665</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025264</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859419</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862499</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004523</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010341</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,13 +7159,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,10 +7177,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>617.1460235486118</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>467.029384136276</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>319.1162905538829</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>319.1162905538829</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>319.1162905538829</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>168.6982821018262</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,19 +7399,19 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4148.02050893291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>3893.336020727023</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>3893.336020727023</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>3665.346469829006</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747118</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>360.5026862907241</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504737</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>88.01149145430867</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>55.20390867860283</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>66.14901489210179</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>159.5688032336822</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>193.6723244592495</v>
+        <v>111.747795514537</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>44.27839330891791</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>84.59001010593099</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.65286672914705</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.8747336631594</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897438</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657694.1855411147</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="G2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176766</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176765</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176769</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176769</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="P2" t="n">
         <v>762506.6664885323</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.278882670405437e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371256</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.60758687065</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44593.39482819118</v>
-      </c>
       <c r="L4" t="n">
-        <v>44593.39482819122</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687063</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002543</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-37944.09944680191</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677424</v>
+        <v>552023.7797677423</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760492</v>
+        <v>123184.6964760491</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529452</v>
+        <v>648344.7329529453</v>
       </c>
       <c r="G6" t="n">
         <v>648344.7329529452</v>
       </c>
       <c r="H6" t="n">
+        <v>648344.7329529452</v>
+      </c>
+      <c r="I6" t="n">
+        <v>648344.7329529448</v>
+      </c>
+      <c r="J6" t="n">
+        <v>471921.5137603525</v>
+      </c>
+      <c r="K6" t="n">
+        <v>648344.7329529451</v>
+      </c>
+      <c r="L6" t="n">
+        <v>648344.7329529452</v>
+      </c>
+      <c r="M6" t="n">
+        <v>513543.7177191076</v>
+      </c>
+      <c r="N6" t="n">
         <v>648344.7329529449</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>648344.7329529451</v>
+      </c>
+      <c r="P6" t="n">
         <v>648344.7329529449</v>
-      </c>
-      <c r="J6" t="n">
-        <v>471921.5137603524</v>
-      </c>
-      <c r="K6" t="n">
-        <v>603701.7128657474</v>
-      </c>
-      <c r="L6" t="n">
-        <v>658207.2249694599</v>
-      </c>
-      <c r="M6" t="n">
-        <v>523406.2097356227</v>
-      </c>
-      <c r="N6" t="n">
-        <v>658207.2249694603</v>
-      </c>
-      <c r="O6" t="n">
-        <v>658207.2249694603</v>
-      </c>
-      <c r="P6" t="n">
-        <v>648344.7329529451</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964077</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964077</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964077</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,25 +26758,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>299.6460620579093</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>218.8388043680903</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>19.42954993933665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.9167967364519</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>25.7637799025309</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>286.5393756126947</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>88.92527991472696</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>218.2953005787748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>244.2257559365456</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>38.13274643571731</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>27.35284188332973</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>28.31325977179773</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,10 +29985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.726471231862282e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31282,22 +31284,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31306,19 +31308,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31476,7 +31478,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,22 +31521,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31545,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31715,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770693</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>457.5346514843358</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36218,7 +36220,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318325</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520631</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502437</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414416</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520631</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502437</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414416</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819984</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520631</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502437</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414416</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520624</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4128581.588282378</v>
+        <v>4121564.573390668</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7357815.411495334</v>
+        <v>7357815.411495335</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>65.62682971309823</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>24.07512679590626</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.60620160013907</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y5" t="n">
-        <v>99.69856304335892</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>159.8849452498396</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>123.2202590352919</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>375.6514235850777</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>60.46179076613162</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.769908071584571</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>120.4120358099649</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113186</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.4224711922605</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>4.467071307536031</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>231.0334437199745</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>82.76481347543434</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>66.14085215535493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>109.7997655438522</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>147.2311610478117</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>102.1555693376513</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>136.9575509524583</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.76637873512493</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670925</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>157.2425576766701</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1429.84311766362</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>85.20679246442273</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>78.26129171521926</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.442957727742</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2067.009756915122</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>455.5174175241617</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>455.5174175241617</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>455.5174175241617</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>979.5885935818919</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>979.5885935818919</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D8" t="n">
-        <v>979.5885935818919</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="E8" t="n">
-        <v>593.8003409836476</v>
+        <v>135.8844025563625</v>
       </c>
       <c r="F8" t="n">
-        <v>586.8548402344442</v>
+        <v>128.938901807159</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.0154977457499</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.0154977457499</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1366.188433646014</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>726.3411982755407</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>726.3411982755407</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>512.0527750937034</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>512.0527750937034</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5044,22 +5044,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>303.1196361220957</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>303.1196361220957</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,10 +5290,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5317,7 +5317,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5360,19 +5360,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>252.147293152278</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>101.7292847002213</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>841.8437303942993</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>587.1592421884125</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>587.1592421884125</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5600,19 +5600,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>348.9932348328232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>348.9932348328232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9932348328232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>348.9932348328232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>180.8179131526438</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.5778825909698</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,10 +5937,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011506</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141297</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557903</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>1432.107328986838</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1211.314749843308</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>844.1942894808744</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C28" t="n">
-        <v>675.2581065529675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1388.007416473203</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.878777686761</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>844.1942894808744</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>844.1942894808744</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="X28" t="n">
-        <v>844.1942894808744</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y28" t="n">
-        <v>844.1942894808744</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515098</v>
@@ -6715,7 +6715,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1360.575309999864</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>617.1460235486118</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>467.029384136276</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>319.1162905538829</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>319.1162905538829</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>319.1162905538829</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>168.6982821018262</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7657,43 +7657,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7745,10 +7745,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5026862907241</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814762</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>88.01149145430867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>55.20390867860283</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>66.14901489210179</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>90.9670373936883</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24423,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>159.5688032336822</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.747795514537</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>139.2918372887793</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>44.27839330891791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>84.59001010593099</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>39.65286672914705</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>140.3375291694985</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>61.34209567542473</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>627481.8564897436</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>627481.8564897438</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885324</v>
       </c>
-      <c r="M2" t="n">
-        <v>762506.6664885321</v>
-      </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687067</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,19 +26484,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680191</v>
+        <v>-37944.09944680188</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677423</v>
+        <v>552023.7797677425</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677425</v>
+        <v>552023.7797677426</v>
       </c>
       <c r="E6" t="n">
-        <v>123184.6964760491</v>
+        <v>122210.105216328</v>
       </c>
       <c r="F6" t="n">
-        <v>648344.7329529453</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="G6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="H6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932235</v>
       </c>
       <c r="I6" t="n">
-        <v>648344.7329529448</v>
+        <v>647370.1416932234</v>
       </c>
       <c r="J6" t="n">
-        <v>471921.5137603525</v>
+        <v>470946.9225006304</v>
       </c>
       <c r="K6" t="n">
-        <v>648344.7329529451</v>
+        <v>647370.1416932233</v>
       </c>
       <c r="L6" t="n">
-        <v>648344.7329529452</v>
+        <v>647370.1416932233</v>
       </c>
       <c r="M6" t="n">
-        <v>513543.7177191076</v>
+        <v>512569.1264593864</v>
       </c>
       <c r="N6" t="n">
-        <v>648344.7329529449</v>
+        <v>647370.1416932237</v>
       </c>
       <c r="O6" t="n">
-        <v>648344.7329529451</v>
+        <v>647370.141693223</v>
       </c>
       <c r="P6" t="n">
-        <v>648344.7329529449</v>
+        <v>647370.1416932233</v>
       </c>
     </row>
   </sheetData>
@@ -26709,19 +26709,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541004</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>299.6460620579093</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>389.7090432248887</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>242.9167967364519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y5" t="n">
-        <v>286.5393756126947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>7.36187584878823</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>88.92527991472696</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>38.13274643571731</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>91.46952547872959</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.35284188332973</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2976195790722</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29985,10 +29985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.726471231862282e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879394</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318325</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
         <v>803.580930408112</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4121564.573390668</v>
+        <v>4126503.8362397</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7357815.411495335</v>
+        <v>7357815.411495334</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>17.16700251682269</v>
       </c>
       <c r="G2" t="n">
-        <v>24.07512679590626</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>159.8849452498396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60.46179076613162</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>287.2841839626593</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>120.4120358099649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113186</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051994</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>157.2425576766695</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.467071307536031</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>82.35845141792591</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76.27978370493953</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>147.2311610478117</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>62.56378259042233</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>139.7568420184986</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>146.1854691670925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357029</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.2425576766701</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4318,7 +4318,7 @@
         <v>85.20679246442273</v>
       </c>
       <c r="F2" t="n">
-        <v>78.26129171521926</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4704,25 +4704,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>566.6290395096265</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563625</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8844025563625</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>128.938901807159</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>115.0154977457499</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>115.0154977457499</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>606.50066520647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805479</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,10 +5290,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5375,7 +5375,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>252.147293152278</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>101.7292847002213</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>420.3226148324574</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1304.650812152126</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1080.865396941632</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.5712828402495</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>637.3638619837795</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>637.3638619837795</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.5712828402495</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1435.720530567577</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7122,10 +7122,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7171,19 +7171,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110095</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555221</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,46 +7414,46 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,49 +7572,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383447</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>527.3450129705744</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>527.3450129705744</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7809,49 +7809,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305963</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814762</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>10.00426342195829</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>105.9521741567359</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>115.5623585656773</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>90.9670373936883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>139.2918372887793</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.3570273931809</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>140.3375291694985</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,10 +26079,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>237.4010000402577</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.34209567542473</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627481.8564897436</v>
+        <v>627481.8564897437</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>627481.8564897437</v>
+        <v>627481.8564897436</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="H2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="I2" t="n">
+        <v>762506.6664885322</v>
+      </c>
+      <c r="J2" t="n">
         <v>762506.6664885323</v>
-      </c>
-      <c r="H2" t="n">
-        <v>762506.6664885324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>762506.6664885323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>762506.6664885322</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885323</v>
       </c>
       <c r="L2" t="n">
+        <v>762506.6664885324</v>
+      </c>
+      <c r="M2" t="n">
         <v>762506.6664885322</v>
       </c>
-      <c r="M2" t="n">
-        <v>762506.6664885324</v>
-      </c>
       <c r="N2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="O2" t="n">
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885322</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26444,22 +26444,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="O4" t="n">
         <v>22174.60758687077</v>
       </c>
-      <c r="O4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37944.09944680188</v>
+        <v>-37944.09944680191</v>
       </c>
       <c r="C6" t="n">
-        <v>552023.7797677425</v>
+        <v>552023.7797677426</v>
       </c>
       <c r="D6" t="n">
-        <v>552023.7797677426</v>
+        <v>552023.7797677424</v>
       </c>
       <c r="E6" t="n">
-        <v>122210.105216328</v>
+        <v>123087.2373500768</v>
       </c>
       <c r="F6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="G6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.273826973</v>
       </c>
       <c r="H6" t="n">
-        <v>647370.1416932235</v>
+        <v>648247.2738269728</v>
       </c>
       <c r="I6" t="n">
-        <v>647370.1416932234</v>
+        <v>648247.2738269728</v>
       </c>
       <c r="J6" t="n">
-        <v>470946.9225006304</v>
+        <v>471824.05463438</v>
       </c>
       <c r="K6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="L6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.273826973</v>
       </c>
       <c r="M6" t="n">
-        <v>512569.1264593864</v>
+        <v>513446.2585931356</v>
       </c>
       <c r="N6" t="n">
-        <v>647370.1416932237</v>
+        <v>648247.2738269729</v>
       </c>
       <c r="O6" t="n">
-        <v>647370.141693223</v>
+        <v>648247.2738269727</v>
       </c>
       <c r="P6" t="n">
-        <v>647370.1416932233</v>
+        <v>648247.2738269733</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541001</v>
       </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>389.7090432248888</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>389.7090432248887</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>7.36187584878823</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7.361875848788252</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>91.46952547872959</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>98.95375469339433</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>105.2976195790722</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,31 +34298,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,31 +34535,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330542</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
